--- a/Gantt_chart.xlsx
+++ b/Gantt_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/vincent_to_griffithuni_edu_au/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhd\Desktop\Milestone1\Milestone1_Group001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD459376-FA7C-457F-9D0F-33B8A6A87F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F193A7D5-6D6C-48A4-BDA4-42785F52681D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -625,44 +625,44 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1067,10 +1067,10 @@
   <dimension ref="B1:BO45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="44.625" style="2" customWidth="1"/>
@@ -1084,7 +1084,7 @@
     <col min="42" max="42" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="2:67" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="2:67" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -1107,37 +1107,37 @@
         <v>25</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="26"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="31"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="30"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="35"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="30"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="35"/>
       <c r="AH2" s="16"/>
       <c r="AI2" s="18" t="s">
         <v>6</v>
@@ -1150,23 +1150,23 @@
       <c r="AO2" s="19"/>
       <c r="AP2" s="19"/>
     </row>
-    <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -1192,13 +1192,13 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>16</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1">
+    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1">
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1">
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1">
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>29</v>
       </c>
@@ -1690,13 +1690,17 @@
       <c r="D20" s="5">
         <v>25</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="5">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5">
+        <v>30</v>
+      </c>
       <c r="G20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>30</v>
       </c>
@@ -1706,13 +1710,17 @@
       <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="5">
+        <v>40</v>
+      </c>
+      <c r="F21" s="5">
+        <v>10</v>
+      </c>
       <c r="G21" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
         <v>31</v>
       </c>
@@ -1722,13 +1730,17 @@
       <c r="D22" s="5">
         <v>2</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="5">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3</v>
+      </c>
       <c r="G22" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>32</v>
       </c>
@@ -1741,12 +1753,14 @@
       <c r="E23" s="5">
         <v>7</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5">
+        <v>48</v>
+      </c>
       <c r="G23" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>33</v>
       </c>
@@ -1759,12 +1773,14 @@
       <c r="E24" s="5">
         <v>7</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5">
+        <v>48</v>
+      </c>
       <c r="G24" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
         <v>34</v>
       </c>
@@ -1774,13 +1790,17 @@
       <c r="D25" s="5">
         <v>30</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="5">
+        <v>25</v>
+      </c>
+      <c r="F25" s="5">
+        <v>30</v>
+      </c>
       <c r="G25" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
@@ -1793,12 +1813,14 @@
       <c r="E26" s="5">
         <v>7</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5">
+        <v>48</v>
+      </c>
       <c r="G26" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>36</v>
       </c>
@@ -1808,13 +1830,17 @@
       <c r="D27" s="5">
         <v>48</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="5">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5">
+        <v>48</v>
+      </c>
       <c r="G27" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>37</v>
       </c>
@@ -1824,13 +1850,17 @@
       <c r="D28" s="5">
         <v>48</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="5">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5">
+        <v>48</v>
+      </c>
       <c r="G28" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>38</v>
       </c>
@@ -1840,13 +1870,17 @@
       <c r="D29" s="5">
         <v>48</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="5">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5">
+        <v>48</v>
+      </c>
       <c r="G29" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>39</v>
       </c>
@@ -1856,13 +1890,17 @@
       <c r="D30" s="5">
         <v>3</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="5">
+        <v>55</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3</v>
+      </c>
       <c r="G30" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>40</v>
       </c>
@@ -1872,13 +1910,17 @@
       <c r="D31" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="5">
+        <v>58</v>
+      </c>
+      <c r="F31" s="5">
+        <v>3</v>
+      </c>
       <c r="G31" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="22"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1906,7 +1948,7 @@
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
-    <row r="33" spans="2:27" ht="30" customHeight="1">
+    <row r="33" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1934,7 +1976,7 @@
       <c r="Z33"/>
       <c r="AA33"/>
     </row>
-    <row r="34" spans="2:27" ht="30" customHeight="1">
+    <row r="34" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="22"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1962,7 +2004,7 @@
       <c r="Z34"/>
       <c r="AA34"/>
     </row>
-    <row r="35" spans="2:27" ht="30" customHeight="1">
+    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1990,7 +2032,7 @@
       <c r="Z35"/>
       <c r="AA35"/>
     </row>
-    <row r="36" spans="2:27" ht="30" customHeight="1">
+    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="22"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2018,7 +2060,7 @@
       <c r="Z36"/>
       <c r="AA36"/>
     </row>
-    <row r="37" spans="2:27" ht="30" customHeight="1">
+    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="22"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2046,7 +2088,7 @@
       <c r="Z37"/>
       <c r="AA37"/>
     </row>
-    <row r="38" spans="2:27" ht="30" customHeight="1">
+    <row r="38" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="22"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2074,7 +2116,7 @@
       <c r="Z38"/>
       <c r="AA38"/>
     </row>
-    <row r="39" spans="2:27" ht="30" customHeight="1">
+    <row r="39" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="22"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2102,7 +2144,7 @@
       <c r="Z39"/>
       <c r="AA39"/>
     </row>
-    <row r="40" spans="2:27" ht="30" customHeight="1">
+    <row r="40" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="22"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2130,7 +2172,7 @@
       <c r="Z40"/>
       <c r="AA40"/>
     </row>
-    <row r="41" spans="2:27" ht="30" customHeight="1">
+    <row r="41" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="22"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2158,7 +2200,7 @@
       <c r="Z41"/>
       <c r="AA41"/>
     </row>
-    <row r="42" spans="2:27" ht="30" customHeight="1">
+    <row r="42" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="22"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2186,7 +2228,7 @@
       <c r="Z42"/>
       <c r="AA42"/>
     </row>
-    <row r="43" spans="2:27" ht="30" customHeight="1">
+    <row r="43" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="22"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2214,7 +2256,7 @@
       <c r="Z43"/>
       <c r="AA43"/>
     </row>
-    <row r="44" spans="2:27" ht="30" customHeight="1">
+    <row r="44" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2242,7 +2284,7 @@
       <c r="Z44"/>
       <c r="AA44"/>
     </row>
-    <row r="45" spans="2:27" ht="30" customHeight="1">
+    <row r="45" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
@@ -2268,17 +2310,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:BO4">
     <cfRule type="expression" dxfId="8" priority="8">
@@ -2346,6 +2388,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a1f55c86-91c1-47ae-a884-d9a92610ea86" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010012E9F1D0B59B0D40BA401C69C9773E0E" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24d8e1c2b15002f8a8b1cd9037b6370a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a1f55c86-91c1-47ae-a884-d9a92610ea86" xmlns:ns4="9f68bc41-5f56-45d5-9d77-02eca8f07113" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96800239e2f1dc0ef4eeca2c0a3c104a" ns3:_="" ns4:_="">
     <xsd:import namespace="a1f55c86-91c1-47ae-a884-d9a92610ea86"/>
@@ -2592,33 +2651,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a1f55c86-91c1-47ae-a884-d9a92610ea86" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0522C58-8C03-4B93-A2BC-7DCB917A32AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283DF080-A059-424A-AA9E-6BEC279424B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1f55c86-91c1-47ae-a884-d9a92610ea86"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A57BF8F-7247-40AD-9AF9-22AEA7485C77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A57BF8F-7247-40AD-9AF9-22AEA7485C77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283DF080-A059-424A-AA9E-6BEC279424B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0522C58-8C03-4B93-A2BC-7DCB917A32AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1f55c86-91c1-47ae-a884-d9a92610ea86"/>
+    <ds:schemaRef ds:uri="9f68bc41-5f56-45d5-9d77-02eca8f07113"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Gantt_chart.xlsx
+++ b/Gantt_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/vincent_to_griffithuni_edu_au/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhd\Desktop\Milestone1\Milestone1_Group001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD459376-FA7C-457F-9D0F-33B8A6A87F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D00AC-10CD-473B-9983-D3EC7544232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -625,43 +625,43 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1066,11 +1066,11 @@
   </sheetPr>
   <dimension ref="B1:BO45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="44.625" style="2" customWidth="1"/>
@@ -1084,7 +1084,7 @@
     <col min="42" max="42" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1094,12 +1094,12 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="2:67" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+    <row r="2" spans="2:67" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1107,37 +1107,37 @@
         <v>25</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="26"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="27"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="31"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="31"/>
       <c r="AH2" s="16"/>
       <c r="AI2" s="18" t="s">
         <v>6</v>
@@ -1150,23 +1150,23 @@
       <c r="AO2" s="19"/>
       <c r="AP2" s="19"/>
     </row>
-    <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -1192,13 +1192,13 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1">
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>16</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1">
+    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1">
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1">
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1">
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>29</v>
       </c>
@@ -1690,13 +1690,17 @@
       <c r="D20" s="5">
         <v>25</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="5">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5">
+        <v>30</v>
+      </c>
       <c r="G20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>30</v>
       </c>
@@ -1706,13 +1710,17 @@
       <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="5">
+        <v>40</v>
+      </c>
+      <c r="F21" s="5">
+        <v>10</v>
+      </c>
       <c r="G21" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
         <v>31</v>
       </c>
@@ -1722,13 +1730,17 @@
       <c r="D22" s="5">
         <v>2</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="5">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3</v>
+      </c>
       <c r="G22" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>32</v>
       </c>
@@ -1741,12 +1753,14 @@
       <c r="E23" s="5">
         <v>7</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5">
+        <v>48</v>
+      </c>
       <c r="G23" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>33</v>
       </c>
@@ -1759,12 +1773,14 @@
       <c r="E24" s="5">
         <v>7</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5">
+        <v>48</v>
+      </c>
       <c r="G24" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
         <v>34</v>
       </c>
@@ -1774,13 +1790,17 @@
       <c r="D25" s="5">
         <v>30</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="5">
+        <v>25</v>
+      </c>
+      <c r="F25" s="5">
+        <v>30</v>
+      </c>
       <c r="G25" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
@@ -1793,12 +1813,14 @@
       <c r="E26" s="5">
         <v>7</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5">
+        <v>48</v>
+      </c>
       <c r="G26" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>36</v>
       </c>
@@ -1808,13 +1830,17 @@
       <c r="D27" s="5">
         <v>48</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="5">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5">
+        <v>48</v>
+      </c>
       <c r="G27" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
         <v>37</v>
       </c>
@@ -1824,13 +1850,17 @@
       <c r="D28" s="5">
         <v>48</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="5">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5">
+        <v>48</v>
+      </c>
       <c r="G28" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>38</v>
       </c>
@@ -1840,13 +1870,17 @@
       <c r="D29" s="5">
         <v>48</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="5">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5">
+        <v>48</v>
+      </c>
       <c r="G29" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>39</v>
       </c>
@@ -1856,13 +1890,17 @@
       <c r="D30" s="5">
         <v>3</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="5">
+        <v>55</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3</v>
+      </c>
       <c r="G30" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>40</v>
       </c>
@@ -1872,13 +1910,17 @@
       <c r="D31" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="5">
+        <v>58</v>
+      </c>
+      <c r="F31" s="5">
+        <v>3</v>
+      </c>
       <c r="G31" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="22"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1906,7 +1948,7 @@
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
-    <row r="33" spans="2:27" ht="30" customHeight="1">
+    <row r="33" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1934,7 +1976,7 @@
       <c r="Z33"/>
       <c r="AA33"/>
     </row>
-    <row r="34" spans="2:27" ht="30" customHeight="1">
+    <row r="34" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="22"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1962,7 +2004,7 @@
       <c r="Z34"/>
       <c r="AA34"/>
     </row>
-    <row r="35" spans="2:27" ht="30" customHeight="1">
+    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="22"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1990,7 +2032,7 @@
       <c r="Z35"/>
       <c r="AA35"/>
     </row>
-    <row r="36" spans="2:27" ht="30" customHeight="1">
+    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="22"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2018,7 +2060,7 @@
       <c r="Z36"/>
       <c r="AA36"/>
     </row>
-    <row r="37" spans="2:27" ht="30" customHeight="1">
+    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="22"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2046,7 +2088,7 @@
       <c r="Z37"/>
       <c r="AA37"/>
     </row>
-    <row r="38" spans="2:27" ht="30" customHeight="1">
+    <row r="38" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="22"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2074,7 +2116,7 @@
       <c r="Z38"/>
       <c r="AA38"/>
     </row>
-    <row r="39" spans="2:27" ht="30" customHeight="1">
+    <row r="39" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="22"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2102,7 +2144,7 @@
       <c r="Z39"/>
       <c r="AA39"/>
     </row>
-    <row r="40" spans="2:27" ht="30" customHeight="1">
+    <row r="40" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="22"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2130,7 +2172,7 @@
       <c r="Z40"/>
       <c r="AA40"/>
     </row>
-    <row r="41" spans="2:27" ht="30" customHeight="1">
+    <row r="41" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="22"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2158,7 +2200,7 @@
       <c r="Z41"/>
       <c r="AA41"/>
     </row>
-    <row r="42" spans="2:27" ht="30" customHeight="1">
+    <row r="42" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="22"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2186,7 +2228,7 @@
       <c r="Z42"/>
       <c r="AA42"/>
     </row>
-    <row r="43" spans="2:27" ht="30" customHeight="1">
+    <row r="43" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="22"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2214,7 +2256,7 @@
       <c r="Z43"/>
       <c r="AA43"/>
     </row>
-    <row r="44" spans="2:27" ht="30" customHeight="1">
+    <row r="44" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2242,7 +2284,7 @@
       <c r="Z44"/>
       <c r="AA44"/>
     </row>
-    <row r="45" spans="2:27" ht="30" customHeight="1">
+    <row r="45" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
@@ -2332,8 +2374,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -2610,15 +2652,40 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0522C58-8C03-4B93-A2BC-7DCB917A32AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0522C58-8C03-4B93-A2BC-7DCB917A32AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1f55c86-91c1-47ae-a884-d9a92610ea86"/>
+    <ds:schemaRef ds:uri="9f68bc41-5f56-45d5-9d77-02eca8f07113"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A57BF8F-7247-40AD-9AF9-22AEA7485C77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A57BF8F-7247-40AD-9AF9-22AEA7485C77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283DF080-A059-424A-AA9E-6BEC279424B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283DF080-A059-424A-AA9E-6BEC279424B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1f55c86-91c1-47ae-a884-d9a92610ea86"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
